--- a/data/pca/factorExposure/factorExposure_2017-01-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.005577878656576473</v>
+        <v>0.01272752064130833</v>
       </c>
       <c r="C2">
-        <v>-0.02320723421529998</v>
+        <v>-0.03994412049342033</v>
       </c>
       <c r="D2">
-        <v>0.03201962372852522</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03177894983941267</v>
+      </c>
+      <c r="E2">
+        <v>0.05032822160748043</v>
+      </c>
+      <c r="F2">
+        <v>0.01627763738283329</v>
+      </c>
+      <c r="G2">
+        <v>0.1079774125853455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0494316744511096</v>
+        <v>0.03814646028962362</v>
       </c>
       <c r="C3">
-        <v>-0.1107237580054644</v>
+        <v>-0.09281373754897604</v>
       </c>
       <c r="D3">
-        <v>0.03409349688622582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01898033772951122</v>
+      </c>
+      <c r="E3">
+        <v>0.104937281015019</v>
+      </c>
+      <c r="F3">
+        <v>0.02141486723009127</v>
+      </c>
+      <c r="G3">
+        <v>0.1314751636843957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05248332273897104</v>
+        <v>0.05480675304561483</v>
       </c>
       <c r="C4">
-        <v>-0.06255992995393618</v>
+        <v>-0.06218082464048886</v>
       </c>
       <c r="D4">
-        <v>0.03270002303804049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02649408792513282</v>
+      </c>
+      <c r="E4">
+        <v>0.04989024731992756</v>
+      </c>
+      <c r="F4">
+        <v>0.005392866358483336</v>
+      </c>
+      <c r="G4">
+        <v>0.09943060908252868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01510666798650788</v>
+        <v>0.03273174359540911</v>
       </c>
       <c r="C6">
-        <v>-0.04963188491124092</v>
+        <v>-0.0454468374761424</v>
       </c>
       <c r="D6">
-        <v>0.02755235554534875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01916244531450734</v>
+      </c>
+      <c r="E6">
+        <v>0.05414873521864672</v>
+      </c>
+      <c r="F6">
+        <v>0.007771571112646068</v>
+      </c>
+      <c r="G6">
+        <v>0.08349587159904925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.009503822421496555</v>
+        <v>0.02006450642044786</v>
       </c>
       <c r="C7">
-        <v>-0.03873931073754452</v>
+        <v>-0.03542243638990086</v>
       </c>
       <c r="D7">
-        <v>0.02256917698651638</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01529597309998131</v>
+      </c>
+      <c r="E7">
+        <v>0.02457698341184303</v>
+      </c>
+      <c r="F7">
+        <v>-0.001778087739964197</v>
+      </c>
+      <c r="G7">
+        <v>0.1252569911210439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.006102553742136313</v>
+        <v>0.003309116448366047</v>
       </c>
       <c r="C8">
-        <v>-0.003857257963860675</v>
+        <v>-0.02044455064057351</v>
       </c>
       <c r="D8">
-        <v>0.004066189166404706</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004496762326837982</v>
+      </c>
+      <c r="E8">
+        <v>0.03542469578161734</v>
+      </c>
+      <c r="F8">
+        <v>0.005842350641902462</v>
+      </c>
+      <c r="G8">
+        <v>0.07044262861919891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0232994836540848</v>
+        <v>0.03316572484722449</v>
       </c>
       <c r="C9">
-        <v>-0.0381252938452681</v>
+        <v>-0.04464024113553418</v>
       </c>
       <c r="D9">
-        <v>0.02151520084232515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01724711491022804</v>
+      </c>
+      <c r="E9">
+        <v>0.03435512625091526</v>
+      </c>
+      <c r="F9">
+        <v>0.001300172050905733</v>
+      </c>
+      <c r="G9">
+        <v>0.09935777087145783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.112916459692492</v>
+        <v>0.09816516346714474</v>
       </c>
       <c r="C10">
-        <v>0.1640586310038211</v>
+        <v>0.1895953720439108</v>
       </c>
       <c r="D10">
-        <v>-0.07501359254720297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01557620492597727</v>
+      </c>
+      <c r="E10">
+        <v>0.01387658087484655</v>
+      </c>
+      <c r="F10">
+        <v>0.02771868260957077</v>
+      </c>
+      <c r="G10">
+        <v>0.05192438162429865</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.02983997511293252</v>
+        <v>0.03554413764121923</v>
       </c>
       <c r="C11">
-        <v>-0.05813010443840479</v>
+        <v>-0.05232528369024685</v>
       </c>
       <c r="D11">
-        <v>0.01256304881810698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.003025549298986608</v>
+      </c>
+      <c r="E11">
+        <v>0.02609465082095004</v>
+      </c>
+      <c r="F11">
+        <v>-0.01322190230139173</v>
+      </c>
+      <c r="G11">
+        <v>0.08227399215716721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.02858490516925969</v>
+        <v>0.03740859160403964</v>
       </c>
       <c r="C12">
-        <v>-0.0491628555626391</v>
+        <v>-0.04632661266044003</v>
       </c>
       <c r="D12">
-        <v>0.01544413002548094</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006954102632845419</v>
+      </c>
+      <c r="E12">
+        <v>0.01530626381005843</v>
+      </c>
+      <c r="F12">
+        <v>-0.002459993651654619</v>
+      </c>
+      <c r="G12">
+        <v>0.07756189948418661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.005689681220205058</v>
+        <v>0.00966365389205007</v>
       </c>
       <c r="C13">
-        <v>-0.02298374090672451</v>
+        <v>-0.03483464628968042</v>
       </c>
       <c r="D13">
-        <v>0.02922326854817386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02968325103560605</v>
+      </c>
+      <c r="E13">
+        <v>0.06024880660470072</v>
+      </c>
+      <c r="F13">
+        <v>0.01578451282882052</v>
+      </c>
+      <c r="G13">
+        <v>0.138633040534972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.001432940476716846</v>
+        <v>0.008783787561392633</v>
       </c>
       <c r="C14">
-        <v>-0.02300933372544588</v>
+        <v>-0.02490463767549544</v>
       </c>
       <c r="D14">
-        <v>0.01464314913777871</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01150181542635646</v>
+      </c>
+      <c r="E14">
+        <v>0.01936701240866075</v>
+      </c>
+      <c r="F14">
+        <v>0.007543702740182073</v>
+      </c>
+      <c r="G14">
+        <v>0.1155648873918168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.02573899438337381</v>
+        <v>0.03368513350647349</v>
       </c>
       <c r="C16">
-        <v>-0.04022865517308347</v>
+        <v>-0.04482306771106874</v>
       </c>
       <c r="D16">
-        <v>0.008000796201227602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002482744183901666</v>
+      </c>
+      <c r="E16">
+        <v>0.02129088653138385</v>
+      </c>
+      <c r="F16">
+        <v>0.004658551551426101</v>
+      </c>
+      <c r="G16">
+        <v>0.08418056070891494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01996246659235213</v>
+        <v>0.01758667494685958</v>
       </c>
       <c r="C19">
-        <v>-0.04824412614709299</v>
+        <v>-0.04551877731499228</v>
       </c>
       <c r="D19">
-        <v>0.02452540595816133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02249397438747041</v>
+      </c>
+      <c r="E19">
+        <v>0.0957625431410092</v>
+      </c>
+      <c r="F19">
+        <v>0.01473157602659573</v>
+      </c>
+      <c r="G19">
+        <v>0.1368224802173594</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.005458083470883594</v>
+        <v>0.01427160160518988</v>
       </c>
       <c r="C20">
-        <v>-0.03296680523203949</v>
+        <v>-0.03708415565583024</v>
       </c>
       <c r="D20">
-        <v>0.02039610051066705</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0157919007585959</v>
+      </c>
+      <c r="E20">
+        <v>0.0450952613205287</v>
+      </c>
+      <c r="F20">
+        <v>0.02708074154003898</v>
+      </c>
+      <c r="G20">
+        <v>0.109014265595209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.00131527771426181</v>
+        <v>0.005926664674801888</v>
       </c>
       <c r="C21">
-        <v>-0.0247596739428113</v>
+        <v>-0.03011168879186583</v>
       </c>
       <c r="D21">
-        <v>0.02208232063630745</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02180312596592745</v>
+      </c>
+      <c r="E21">
+        <v>0.06321313595083504</v>
+      </c>
+      <c r="F21">
+        <v>0.01905532936328363</v>
+      </c>
+      <c r="G21">
+        <v>0.1529392005167725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001305037460769622</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.005695857048410399</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002536435802948174</v>
+      </c>
+      <c r="E22">
+        <v>0.01923018339427687</v>
+      </c>
+      <c r="F22">
+        <v>-0.00298510119970062</v>
+      </c>
+      <c r="G22">
+        <v>0.004351128561891728</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0012804728848569</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.005606256963391749</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002522191877566979</v>
+      </c>
+      <c r="E23">
+        <v>0.0191452406184903</v>
+      </c>
+      <c r="F23">
+        <v>-0.00273909771497035</v>
+      </c>
+      <c r="G23">
+        <v>0.004206414933726962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.01946512197232576</v>
+        <v>0.02998869884261149</v>
       </c>
       <c r="C24">
-        <v>-0.04647752379304038</v>
+        <v>-0.04934173071106981</v>
       </c>
       <c r="D24">
-        <v>0.01586994890087792</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.00760200979222751</v>
+      </c>
+      <c r="E24">
+        <v>0.0196662626658069</v>
+      </c>
+      <c r="F24">
+        <v>-0.003817769910195527</v>
+      </c>
+      <c r="G24">
+        <v>0.08533043395969846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.03630643195844535</v>
+        <v>0.04268880656305322</v>
       </c>
       <c r="C25">
-        <v>-0.05791275754888842</v>
+        <v>-0.05634821753398468</v>
       </c>
       <c r="D25">
-        <v>0.02174443838099073</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01174001772822037</v>
+      </c>
+      <c r="E25">
+        <v>0.01313805161215886</v>
+      </c>
+      <c r="F25">
+        <v>-0.004791007836994884</v>
+      </c>
+      <c r="G25">
+        <v>0.091695090112032</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.004332670767451825</v>
+        <v>0.01437542065553058</v>
       </c>
       <c r="C26">
-        <v>0.001192126243032014</v>
+        <v>-0.009228351747158348</v>
       </c>
       <c r="D26">
-        <v>0.02209068546043332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02452980424212654</v>
+      </c>
+      <c r="E26">
+        <v>0.01525616670819233</v>
+      </c>
+      <c r="F26">
+        <v>0.005767995579504517</v>
+      </c>
+      <c r="G26">
+        <v>0.0858675586162566</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1408006522263068</v>
+        <v>0.1284162029300532</v>
       </c>
       <c r="C28">
-        <v>0.1902498123878896</v>
+        <v>0.2436456308461157</v>
       </c>
       <c r="D28">
-        <v>-0.07368742788267162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.007066672587451475</v>
+      </c>
+      <c r="E28">
+        <v>-0.005502284899678145</v>
+      </c>
+      <c r="F28">
+        <v>0.02481020674799013</v>
+      </c>
+      <c r="G28">
+        <v>0.04571454784420189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008118808637092623</v>
+        <v>0.007664800697381419</v>
       </c>
       <c r="C29">
-        <v>-0.01851648847629047</v>
+        <v>-0.02112208553725366</v>
       </c>
       <c r="D29">
-        <v>0.01153979422085007</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01031370553640597</v>
+      </c>
+      <c r="E29">
+        <v>0.0115642141348076</v>
+      </c>
+      <c r="F29">
+        <v>0.01242739904997933</v>
+      </c>
+      <c r="G29">
+        <v>0.1060498438119108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02615711242189274</v>
+        <v>0.03782399008450911</v>
       </c>
       <c r="C30">
-        <v>-0.07224972105837336</v>
+        <v>-0.06276137277874705</v>
       </c>
       <c r="D30">
-        <v>0.04257731842757596</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.03164832346409788</v>
+      </c>
+      <c r="E30">
+        <v>0.07790857772175371</v>
+      </c>
+      <c r="F30">
+        <v>-0.01469976626158781</v>
+      </c>
+      <c r="G30">
+        <v>0.122823512281269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03447856350048559</v>
+        <v>0.05297826486262282</v>
       </c>
       <c r="C31">
-        <v>-0.02314345449591609</v>
+        <v>-0.0376175949799683</v>
       </c>
       <c r="D31">
-        <v>0.005788671157311832</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.004135508183038665</v>
+      </c>
+      <c r="E31">
+        <v>-0.0002826793931571513</v>
+      </c>
+      <c r="F31">
+        <v>0.03579095759005377</v>
+      </c>
+      <c r="G31">
+        <v>0.09711413244588298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0003468683654906682</v>
+        <v>0.001524536304528252</v>
       </c>
       <c r="C32">
-        <v>-0.03205489760940915</v>
+        <v>-0.01915912297905235</v>
       </c>
       <c r="D32">
-        <v>0.00237601427562738</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.001212379385475495</v>
+      </c>
+      <c r="E32">
+        <v>0.05074242687687988</v>
+      </c>
+      <c r="F32">
+        <v>-0.02222333432059754</v>
+      </c>
+      <c r="G32">
+        <v>0.07556819713264784</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02152223277525284</v>
+        <v>0.02627119581740226</v>
       </c>
       <c r="C33">
-        <v>-0.0499990919932975</v>
+        <v>-0.04615295144809559</v>
       </c>
       <c r="D33">
-        <v>0.02275598681908355</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01801521796692596</v>
+      </c>
+      <c r="E33">
+        <v>0.06449355364393897</v>
+      </c>
+      <c r="F33">
+        <v>-0.001346357238311754</v>
+      </c>
+      <c r="G33">
+        <v>0.1581591275667687</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04187573497836933</v>
+        <v>0.04109334239481545</v>
       </c>
       <c r="C34">
-        <v>-0.06200742042718427</v>
+        <v>-0.06009632028677143</v>
       </c>
       <c r="D34">
-        <v>0.004944840577070821</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.003866011819771569</v>
+      </c>
+      <c r="E34">
+        <v>0.01895543055933605</v>
+      </c>
+      <c r="F34">
+        <v>-0.01742497752809277</v>
+      </c>
+      <c r="G34">
+        <v>0.08450326239640989</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.00963347818186353</v>
+        <v>0.01477916196089383</v>
       </c>
       <c r="C36">
-        <v>0.0002008568806347796</v>
+        <v>-0.005503200299468666</v>
       </c>
       <c r="D36">
-        <v>0.009696971119108088</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01356986154809029</v>
+      </c>
+      <c r="E36">
+        <v>0.01842318787270055</v>
+      </c>
+      <c r="F36">
+        <v>0.007979116206364439</v>
+      </c>
+      <c r="G36">
+        <v>0.09651821339555929</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0255406477370063</v>
+        <v>0.02981165961695205</v>
       </c>
       <c r="C38">
-        <v>-0.02448479332200626</v>
+        <v>-0.02306399557591825</v>
       </c>
       <c r="D38">
-        <v>-0.005162763674148709</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.006650596817385653</v>
+      </c>
+      <c r="E38">
+        <v>0.01647315382713308</v>
+      </c>
+      <c r="F38">
+        <v>0.01322658378982649</v>
+      </c>
+      <c r="G38">
+        <v>0.08927423229724073</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.0196805661924593</v>
+        <v>0.03591129494227177</v>
       </c>
       <c r="C39">
-        <v>-0.08208094996326043</v>
+        <v>-0.07644756469259396</v>
       </c>
       <c r="D39">
-        <v>0.03017754615645367</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01309150611100245</v>
+      </c>
+      <c r="E39">
+        <v>0.03804536490989738</v>
+      </c>
+      <c r="F39">
+        <v>-0.01317040743817837</v>
+      </c>
+      <c r="G39">
+        <v>0.09200318204656528</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01349065466535061</v>
+        <v>0.01587723232647205</v>
       </c>
       <c r="C40">
-        <v>-0.01910092717513214</v>
+        <v>-0.03339427206845901</v>
       </c>
       <c r="D40">
-        <v>0.01465422871952617</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01541746212657383</v>
+      </c>
+      <c r="E40">
+        <v>0.03462891172628565</v>
+      </c>
+      <c r="F40">
+        <v>0.02657531557362722</v>
+      </c>
+      <c r="G40">
+        <v>0.1235409847698331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01083050474176857</v>
+        <v>0.01844156805804196</v>
       </c>
       <c r="C41">
-        <v>0.004065159673526083</v>
+        <v>0.001161116634073068</v>
       </c>
       <c r="D41">
-        <v>0.0007983756913579535</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.00562886744282826</v>
+      </c>
+      <c r="E41">
+        <v>0.01518484910702205</v>
+      </c>
+      <c r="F41">
+        <v>0.0141541207423668</v>
+      </c>
+      <c r="G41">
+        <v>0.09056173017692908</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.006147044757006913</v>
+        <v>0.004803231374910942</v>
       </c>
       <c r="C42">
-        <v>-0.03059831702316727</v>
+        <v>-0.02878768701668369</v>
       </c>
       <c r="D42">
-        <v>0.1007544194387762</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08443973884259834</v>
+      </c>
+      <c r="E42">
+        <v>-0.006862515614023217</v>
+      </c>
+      <c r="F42">
+        <v>0.03193281379834927</v>
+      </c>
+      <c r="G42">
+        <v>-0.01797286982044193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02684763928971408</v>
+        <v>0.03291496310399596</v>
       </c>
       <c r="C43">
-        <v>-0.008984665336369269</v>
+        <v>-0.01276790510616693</v>
       </c>
       <c r="D43">
-        <v>0.002204919100018266</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.007229714120519537</v>
+      </c>
+      <c r="E43">
+        <v>0.03342372814001065</v>
+      </c>
+      <c r="F43">
+        <v>0.01130884912459886</v>
+      </c>
+      <c r="G43">
+        <v>0.1204140670964824</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01090033951045929</v>
+        <v>0.0128075093563302</v>
       </c>
       <c r="C44">
-        <v>-0.05310727927434306</v>
+        <v>-0.05202373357764864</v>
       </c>
       <c r="D44">
-        <v>0.01694235585163409</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.00824990098893243</v>
+      </c>
+      <c r="E44">
+        <v>0.03721341365146142</v>
+      </c>
+      <c r="F44">
+        <v>0.01989500422589642</v>
+      </c>
+      <c r="G44">
+        <v>0.1187073121939963</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.002134182482330841</v>
+        <v>0.009456436433031833</v>
       </c>
       <c r="C46">
-        <v>-0.003513443288442933</v>
+        <v>-0.01327673662856865</v>
       </c>
       <c r="D46">
-        <v>0.01230134297366258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01295242526402281</v>
+      </c>
+      <c r="E46">
+        <v>0.002250126066113798</v>
+      </c>
+      <c r="F46">
+        <v>0.01664140136055062</v>
+      </c>
+      <c r="G46">
+        <v>0.1100778676728653</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05675040589407815</v>
+        <v>0.08102564315186389</v>
       </c>
       <c r="C47">
-        <v>-0.06762102992556934</v>
+        <v>-0.06935880602634439</v>
       </c>
       <c r="D47">
-        <v>0.008104457834304395</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005134117472966501</v>
+      </c>
+      <c r="E47">
+        <v>-0.008903193576029846</v>
+      </c>
+      <c r="F47">
+        <v>0.04493342312222705</v>
+      </c>
+      <c r="G47">
+        <v>0.08779196046637995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.009805961314869403</v>
+        <v>0.01767796396513</v>
       </c>
       <c r="C48">
-        <v>-0.007830506565744827</v>
+        <v>-0.009853980795660286</v>
       </c>
       <c r="D48">
-        <v>0.001804681466928827</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.003214054486414632</v>
+      </c>
+      <c r="E48">
+        <v>0.01277874124720171</v>
+      </c>
+      <c r="F48">
+        <v>0.01955437434486261</v>
+      </c>
+      <c r="G48">
+        <v>0.1063521666078538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.06572201503483024</v>
+        <v>0.07424342392753516</v>
       </c>
       <c r="C50">
-        <v>-0.06757783118257731</v>
+        <v>-0.06807445999094011</v>
       </c>
       <c r="D50">
-        <v>0.00745596971866361</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001818877805464321</v>
+      </c>
+      <c r="E50">
+        <v>-0.004624675684715494</v>
+      </c>
+      <c r="F50">
+        <v>0.04530691800793827</v>
+      </c>
+      <c r="G50">
+        <v>0.1019949884553513</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.009224797030679608</v>
+        <v>0.01140987100542322</v>
       </c>
       <c r="C51">
-        <v>-0.03256892777871029</v>
+        <v>-0.03380075814832153</v>
       </c>
       <c r="D51">
-        <v>0.01510653224042937</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01206864336689428</v>
+      </c>
+      <c r="E51">
+        <v>0.03854326021306503</v>
+      </c>
+      <c r="F51">
+        <v>-0.007369206578292394</v>
+      </c>
+      <c r="G51">
+        <v>0.1162805188027952</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08322208190235308</v>
+        <v>0.08335688317163929</v>
       </c>
       <c r="C53">
-        <v>-0.0862632105795661</v>
+        <v>-0.08263313263411029</v>
       </c>
       <c r="D53">
-        <v>0.009978065365007829</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004158229915019584</v>
+      </c>
+      <c r="E53">
+        <v>-0.03018209960909259</v>
+      </c>
+      <c r="F53">
+        <v>0.04861304225906934</v>
+      </c>
+      <c r="G53">
+        <v>0.0936166155545872</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02535928814255331</v>
+        <v>0.03128058913386671</v>
       </c>
       <c r="C54">
-        <v>-0.003672783041617244</v>
+        <v>-0.01401865619033613</v>
       </c>
       <c r="D54">
-        <v>-0.005651537050128885</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0001450645065609248</v>
+      </c>
+      <c r="E54">
+        <v>0.02473464331239438</v>
+      </c>
+      <c r="F54">
+        <v>0.01243046526796293</v>
+      </c>
+      <c r="G54">
+        <v>0.1102225718668645</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.06111794065410783</v>
+        <v>0.07707847255206839</v>
       </c>
       <c r="C55">
-        <v>-0.07098558790126369</v>
+        <v>-0.06752399241320341</v>
       </c>
       <c r="D55">
-        <v>0.00829029614818406</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005866509590176696</v>
+      </c>
+      <c r="E55">
+        <v>-0.03157902862363026</v>
+      </c>
+      <c r="F55">
+        <v>0.04900969733267931</v>
+      </c>
+      <c r="G55">
+        <v>0.07166481138300362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1275589146863643</v>
+        <v>0.1380703291796396</v>
       </c>
       <c r="C56">
-        <v>-0.1164806258903118</v>
+        <v>-0.1043296619096282</v>
       </c>
       <c r="D56">
-        <v>0.005662695188943022</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01320969647191527</v>
+      </c>
+      <c r="E56">
+        <v>-0.0372728309320866</v>
+      </c>
+      <c r="F56">
+        <v>0.05718519592417626</v>
+      </c>
+      <c r="G56">
+        <v>0.05647533215429189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.00986166058085128</v>
+        <v>0.003722011735284614</v>
       </c>
       <c r="C57">
-        <v>-0.003661900643740694</v>
+        <v>-0.003624294549702649</v>
       </c>
       <c r="D57">
-        <v>0.02237099942128648</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02290778791559192</v>
+      </c>
+      <c r="E57">
+        <v>0.02404970206078793</v>
+      </c>
+      <c r="F57">
+        <v>0.001971105162975957</v>
+      </c>
+      <c r="G57">
+        <v>0.01473065434632229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.03542306353244099</v>
+        <v>0.03919152061538263</v>
       </c>
       <c r="C58">
-        <v>-0.05887253647190364</v>
+        <v>-0.0283671791327032</v>
       </c>
       <c r="D58">
-        <v>0.01147364836221483</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03580141944084771</v>
+      </c>
+      <c r="E58">
+        <v>0.7495756292701871</v>
+      </c>
+      <c r="F58">
+        <v>0.5590175460437147</v>
+      </c>
+      <c r="G58">
+        <v>-0.2882192486670568</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1839561609408153</v>
+        <v>0.1564454550460826</v>
       </c>
       <c r="C59">
-        <v>0.1819817607295093</v>
+        <v>0.2094806037957305</v>
       </c>
       <c r="D59">
-        <v>-0.0840566938421788</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01070284679601486</v>
+      </c>
+      <c r="E59">
+        <v>0.0202496687171338</v>
+      </c>
+      <c r="F59">
+        <v>0.008938797438868901</v>
+      </c>
+      <c r="G59">
+        <v>0.03384588087405879</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2960944347770368</v>
+        <v>0.2858553860161134</v>
       </c>
       <c r="C60">
-        <v>-0.1465122249257519</v>
+        <v>-0.1073322345788545</v>
       </c>
       <c r="D60">
-        <v>0.01440420580010071</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01709244523166593</v>
+      </c>
+      <c r="E60">
+        <v>0.1165513954272283</v>
+      </c>
+      <c r="F60">
+        <v>-0.3090633191137713</v>
+      </c>
+      <c r="G60">
+        <v>-0.1712443386683593</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.02255787993484908</v>
+        <v>0.03875918502817322</v>
       </c>
       <c r="C61">
-        <v>-0.06496234131776081</v>
+        <v>-0.06264794422312973</v>
       </c>
       <c r="D61">
-        <v>0.01862416453931657</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006954137017042028</v>
+      </c>
+      <c r="E61">
+        <v>0.03570245316729704</v>
+      </c>
+      <c r="F61">
+        <v>-0.006720329615329537</v>
+      </c>
+      <c r="G61">
+        <v>0.09037749596115616</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0104411404819466</v>
+        <v>0.01476111986053364</v>
       </c>
       <c r="C63">
-        <v>-0.03020732530009943</v>
+        <v>-0.02671715756624342</v>
       </c>
       <c r="D63">
-        <v>0.01493012010838512</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.00910540091005429</v>
+      </c>
+      <c r="E63">
+        <v>0.01007572741880745</v>
+      </c>
+      <c r="F63">
+        <v>0.01548538276267031</v>
+      </c>
+      <c r="G63">
+        <v>0.0931095205654783</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04172904824864325</v>
+        <v>0.05000490960382416</v>
       </c>
       <c r="C64">
-        <v>-0.03683419958502273</v>
+        <v>-0.04632981420296524</v>
       </c>
       <c r="D64">
-        <v>0.00947106089807603</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006210557581700256</v>
+      </c>
+      <c r="E64">
+        <v>0.008376733192323694</v>
+      </c>
+      <c r="F64">
+        <v>-0.005741167138322063</v>
+      </c>
+      <c r="G64">
+        <v>0.09410309588592172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0722465155986264</v>
+        <v>0.07044476281592472</v>
       </c>
       <c r="C65">
-        <v>-0.08306833714533457</v>
+        <v>-0.05399912241686023</v>
       </c>
       <c r="D65">
-        <v>0.02909375865861924</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01876771424920705</v>
+      </c>
+      <c r="E65">
+        <v>0.0594869966349232</v>
+      </c>
+      <c r="F65">
+        <v>-0.009343537905320482</v>
+      </c>
+      <c r="G65">
+        <v>0.04082628392806406</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.03501321999929545</v>
+        <v>0.04698044410209273</v>
       </c>
       <c r="C66">
-        <v>-0.1288270624726168</v>
+        <v>-0.1025938181692165</v>
       </c>
       <c r="D66">
-        <v>0.0407978903062553</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01415744809547231</v>
+      </c>
+      <c r="E66">
+        <v>0.06255006827829275</v>
+      </c>
+      <c r="F66">
+        <v>-0.02118282231530656</v>
+      </c>
+      <c r="G66">
+        <v>0.09986915045491045</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05404225138057674</v>
+        <v>0.05392537042286261</v>
       </c>
       <c r="C67">
-        <v>-0.03372896347241221</v>
+        <v>-0.02958534108643298</v>
       </c>
       <c r="D67">
-        <v>-0.003786507288926684</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005540732397600041</v>
+      </c>
+      <c r="E67">
+        <v>0.004490798072490062</v>
+      </c>
+      <c r="F67">
+        <v>0.00830754146823199</v>
+      </c>
+      <c r="G67">
+        <v>0.07660121464507787</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.166624307527678</v>
+        <v>0.156297725951759</v>
       </c>
       <c r="C68">
-        <v>0.2381846389886528</v>
+        <v>0.2708112218133908</v>
       </c>
       <c r="D68">
-        <v>-0.0768594268627768</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.004665418714966696</v>
+      </c>
+      <c r="E68">
+        <v>-0.01197095608757068</v>
+      </c>
+      <c r="F68">
+        <v>0.04728326439562788</v>
+      </c>
+      <c r="G68">
+        <v>0.01411071564565762</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.06700549620320083</v>
+        <v>0.0826990240499326</v>
       </c>
       <c r="C69">
-        <v>-0.0666829560426157</v>
+        <v>-0.07176602618131379</v>
       </c>
       <c r="D69">
-        <v>0.00190077029594592</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008797777575284417</v>
+      </c>
+      <c r="E69">
+        <v>-0.01717583864614169</v>
+      </c>
+      <c r="F69">
+        <v>0.02195398565940635</v>
+      </c>
+      <c r="G69">
+        <v>0.1002875219170041</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.160108919004028</v>
+        <v>0.1424043113684012</v>
       </c>
       <c r="C71">
-        <v>0.1871412431285106</v>
+        <v>0.2314922003440263</v>
       </c>
       <c r="D71">
-        <v>-0.07300645760379217</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003020353543787431</v>
+      </c>
+      <c r="E71">
+        <v>0.02332661044964377</v>
+      </c>
+      <c r="F71">
+        <v>0.03155174239897972</v>
+      </c>
+      <c r="G71">
+        <v>0.06169557130158829</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.06267997089868332</v>
+        <v>0.08473029697474907</v>
       </c>
       <c r="C72">
-        <v>-0.0756825336356599</v>
+        <v>-0.06427395459890091</v>
       </c>
       <c r="D72">
-        <v>0.004323650865111926</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.006869448867014846</v>
+      </c>
+      <c r="E72">
+        <v>0.009619588754011992</v>
+      </c>
+      <c r="F72">
+        <v>-0.02539323777220417</v>
+      </c>
+      <c r="G72">
+        <v>0.08419571525227688</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4104961690027026</v>
+        <v>0.3670978281859069</v>
       </c>
       <c r="C73">
-        <v>-0.2023100530557157</v>
+        <v>-0.1097092461598302</v>
       </c>
       <c r="D73">
-        <v>0.01920657381745845</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.03110656731023776</v>
+      </c>
+      <c r="E73">
+        <v>0.2658636634042957</v>
+      </c>
+      <c r="F73">
+        <v>-0.5349864260906499</v>
+      </c>
+      <c r="G73">
+        <v>-0.316824039753013</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.09294963646161093</v>
+        <v>0.1064003967535541</v>
       </c>
       <c r="C74">
-        <v>-0.1321007311547229</v>
+        <v>-0.105731364436439</v>
       </c>
       <c r="D74">
-        <v>0.01681134724802879</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009541869086771373</v>
+      </c>
+      <c r="E74">
+        <v>-0.01029171300094841</v>
+      </c>
+      <c r="F74">
+        <v>0.05688750543467439</v>
+      </c>
+      <c r="G74">
+        <v>0.07609390417538728</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2245134796158679</v>
+        <v>0.2489692459993432</v>
       </c>
       <c r="C75">
-        <v>-0.1818767285647592</v>
+        <v>-0.1487782618891465</v>
       </c>
       <c r="D75">
-        <v>0.001608191213008387</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03248502945336556</v>
+      </c>
+      <c r="E75">
+        <v>-0.09868678089535199</v>
+      </c>
+      <c r="F75">
+        <v>0.1322705027392704</v>
+      </c>
+      <c r="G75">
+        <v>0.01937785747569406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1068658506723082</v>
+        <v>0.1187482131235709</v>
       </c>
       <c r="C76">
-        <v>-0.1322176222193789</v>
+        <v>-0.1071823793583079</v>
       </c>
       <c r="D76">
-        <v>0.007737722804771916</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01839960290391102</v>
+      </c>
+      <c r="E76">
+        <v>-0.04214530280552192</v>
+      </c>
+      <c r="F76">
+        <v>0.08069742288053039</v>
+      </c>
+      <c r="G76">
+        <v>0.07062622876056875</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.04655909220662105</v>
+        <v>0.06843890257635245</v>
       </c>
       <c r="C77">
-        <v>-0.05896136854077014</v>
+        <v>-0.04956638694611316</v>
       </c>
       <c r="D77">
-        <v>0.01830424548420345</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0120224374580499</v>
+      </c>
+      <c r="E77">
+        <v>0.06495878300646409</v>
+      </c>
+      <c r="F77">
+        <v>0.006486925850365022</v>
+      </c>
+      <c r="G77">
+        <v>0.08450476230214461</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04103951215712975</v>
+        <v>0.04017515478799506</v>
       </c>
       <c r="C78">
-        <v>-0.05628165624004833</v>
+        <v>-0.04943759397288783</v>
       </c>
       <c r="D78">
-        <v>0.01341101794861271</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.008501696784072071</v>
+      </c>
+      <c r="E78">
+        <v>0.04992729267420325</v>
+      </c>
+      <c r="F78">
+        <v>-0.02432397090190624</v>
+      </c>
+      <c r="G78">
+        <v>0.09572804997229081</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001658631802091754</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0009918358399040111</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0008117174457342107</v>
+      </c>
+      <c r="E79">
+        <v>0.007019299077026807</v>
+      </c>
+      <c r="F79">
+        <v>0.001730494899785948</v>
+      </c>
+      <c r="G79">
+        <v>0.007398640806445797</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.045450327860408</v>
+        <v>0.04025698818056163</v>
       </c>
       <c r="C80">
-        <v>-0.06225103326579438</v>
+        <v>-0.04863522144608071</v>
       </c>
       <c r="D80">
-        <v>0.02279627517100355</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01493308124412995</v>
+      </c>
+      <c r="E80">
+        <v>0.03817267971704733</v>
+      </c>
+      <c r="F80">
+        <v>0.005449165736840149</v>
+      </c>
+      <c r="G80">
+        <v>0.05868475244644571</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1211612243945372</v>
+        <v>0.1389910223588404</v>
       </c>
       <c r="C81">
-        <v>-0.104725388605981</v>
+        <v>-0.09160564001161058</v>
       </c>
       <c r="D81">
-        <v>0.003482672642863457</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01589043898685385</v>
+      </c>
+      <c r="E81">
+        <v>-0.06132451479406734</v>
+      </c>
+      <c r="F81">
+        <v>0.1045820101107542</v>
+      </c>
+      <c r="G81">
+        <v>0.03861178294805479</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.0424545542612086</v>
+        <v>0.1663528766713807</v>
       </c>
       <c r="C82">
-        <v>-0.0371873062448142</v>
+        <v>-0.1149551364736958</v>
       </c>
       <c r="D82">
-        <v>0.003301784822635297</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.0174416415649077</v>
+      </c>
+      <c r="E82">
+        <v>-0.1685797275167164</v>
+      </c>
+      <c r="F82">
+        <v>0.05005131498280813</v>
+      </c>
+      <c r="G82">
+        <v>0.01837989605803571</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02118619234546682</v>
+        <v>0.0333423807662603</v>
       </c>
       <c r="C83">
-        <v>-0.02021259682836204</v>
+        <v>-0.02982325360202554</v>
       </c>
       <c r="D83">
-        <v>0.007449953068709138</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.007856839580317946</v>
+      </c>
+      <c r="E83">
+        <v>0.04210567143255409</v>
+      </c>
+      <c r="F83">
+        <v>-0.02847356485311126</v>
+      </c>
+      <c r="G83">
+        <v>0.05486478771932603</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2217764561845223</v>
+        <v>0.2104158508090032</v>
       </c>
       <c r="C85">
-        <v>-0.192681615241705</v>
+        <v>-0.1422149324429465</v>
       </c>
       <c r="D85">
-        <v>0.0161620065671416</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01828489030203904</v>
+      </c>
+      <c r="E85">
+        <v>-0.1058103602271642</v>
+      </c>
+      <c r="F85">
+        <v>0.06069942151589863</v>
+      </c>
+      <c r="G85">
+        <v>-0.01747469254286948</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.005948559686490906</v>
+        <v>0.01112149548916814</v>
       </c>
       <c r="C86">
-        <v>-0.02088046055851291</v>
+        <v>-0.02459819581271121</v>
       </c>
       <c r="D86">
-        <v>0.01161576108395061</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01394201219341792</v>
+      </c>
+      <c r="E86">
+        <v>0.07287394939696001</v>
+      </c>
+      <c r="F86">
+        <v>-0.01664675019281922</v>
+      </c>
+      <c r="G86">
+        <v>0.1740014950396745</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.005690223820669795</v>
+        <v>0.02085826494538419</v>
       </c>
       <c r="C87">
-        <v>-0.01702605135647475</v>
+        <v>-0.01479851632182575</v>
       </c>
       <c r="D87">
-        <v>0.01269229537615476</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01413171152264172</v>
+      </c>
+      <c r="E87">
+        <v>0.09920885917961274</v>
+      </c>
+      <c r="F87">
+        <v>0.02839678758701938</v>
+      </c>
+      <c r="G87">
+        <v>0.1115593590941888</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.07942638601221406</v>
+        <v>0.08983063446657362</v>
       </c>
       <c r="C88">
-        <v>-0.06064675791613724</v>
+        <v>-0.06634994662415648</v>
       </c>
       <c r="D88">
-        <v>0.03034095281829467</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02308594906538118</v>
+      </c>
+      <c r="E88">
+        <v>0.007303196074355723</v>
+      </c>
+      <c r="F88">
+        <v>0.01406138646773489</v>
+      </c>
+      <c r="G88">
+        <v>0.1054144446259769</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2723364868725699</v>
+        <v>0.2293355931390553</v>
       </c>
       <c r="C89">
-        <v>0.3312779466223369</v>
+        <v>0.3704473461760119</v>
       </c>
       <c r="D89">
-        <v>-0.1213233299740979</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0004202085039671078</v>
+      </c>
+      <c r="E89">
+        <v>-0.02744562047725568</v>
+      </c>
+      <c r="F89">
+        <v>0.0158579147980752</v>
+      </c>
+      <c r="G89">
+        <v>0.07988632585429252</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2344837198892094</v>
+        <v>0.207366109982138</v>
       </c>
       <c r="C90">
-        <v>0.2915767632063031</v>
+        <v>0.3167925304195591</v>
       </c>
       <c r="D90">
-        <v>-0.11040837047773</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004739957485016111</v>
+      </c>
+      <c r="E90">
+        <v>-0.01517058569625223</v>
+      </c>
+      <c r="F90">
+        <v>0.04837297919334365</v>
+      </c>
+      <c r="G90">
+        <v>0.04217514162387369</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1749314942134675</v>
+        <v>0.1859380146139529</v>
       </c>
       <c r="C91">
-        <v>-0.1380141685186155</v>
+        <v>-0.1364752069251222</v>
       </c>
       <c r="D91">
-        <v>-0.001531696052668713</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02314971381272801</v>
+      </c>
+      <c r="E91">
+        <v>-0.08042567918108919</v>
+      </c>
+      <c r="F91">
+        <v>0.1023189007502857</v>
+      </c>
+      <c r="G91">
+        <v>0.04726455812226277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2237274570630287</v>
+        <v>0.1936109074148314</v>
       </c>
       <c r="C92">
-        <v>0.201333644482933</v>
+        <v>0.2631333441213458</v>
       </c>
       <c r="D92">
-        <v>-0.1195761099046535</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03811094877575207</v>
+      </c>
+      <c r="E92">
+        <v>0.02109872289752021</v>
+      </c>
+      <c r="F92">
+        <v>0.05227896118078665</v>
+      </c>
+      <c r="G92">
+        <v>0.0872903526761645</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2512946543283416</v>
+        <v>0.2298471845417244</v>
       </c>
       <c r="C93">
-        <v>0.2674473472648611</v>
+        <v>0.3133430862389203</v>
       </c>
       <c r="D93">
-        <v>-0.1113877167279136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01029709690211447</v>
+      </c>
+      <c r="E93">
+        <v>0.000392550987368975</v>
+      </c>
+      <c r="F93">
+        <v>0.03878606763268594</v>
+      </c>
+      <c r="G93">
+        <v>0.05833508897519182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2370617302588112</v>
+        <v>0.3331839460259806</v>
       </c>
       <c r="C94">
-        <v>-0.1844013560885842</v>
+        <v>-0.207253779683796</v>
       </c>
       <c r="D94">
-        <v>0.02277765736771108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02874899111155136</v>
+      </c>
+      <c r="E94">
+        <v>-0.3763920787033173</v>
+      </c>
+      <c r="F94">
+        <v>0.3880934068306393</v>
+      </c>
+      <c r="G94">
+        <v>-0.378207237262723</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.05948170483838539</v>
+        <v>0.08833329885587818</v>
       </c>
       <c r="C95">
-        <v>-0.1167613485061005</v>
+        <v>-0.07469160686701846</v>
       </c>
       <c r="D95">
-        <v>0.01833663375842798</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.006432880620741415</v>
+      </c>
+      <c r="E95">
+        <v>0.1304099054685036</v>
+      </c>
+      <c r="F95">
+        <v>-0.1572737747496805</v>
+      </c>
+      <c r="G95">
+        <v>0.06109666827981224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1990427505051519</v>
+        <v>0.1911600174751891</v>
       </c>
       <c r="C98">
-        <v>-0.08463301182341192</v>
+        <v>-0.04911405913215491</v>
       </c>
       <c r="D98">
-        <v>-0.01937768935998891</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.009122713895915572</v>
+      </c>
+      <c r="E98">
+        <v>0.1314230655175484</v>
+      </c>
+      <c r="F98">
+        <v>-0.1927533495310588</v>
+      </c>
+      <c r="G98">
+        <v>-0.06053510095569276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007847152082914364</v>
+        <v>0.007510980561082595</v>
       </c>
       <c r="C101">
-        <v>-0.0187993760697163</v>
+        <v>-0.02100128746751235</v>
       </c>
       <c r="D101">
-        <v>0.01150790643952051</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01012933081980088</v>
+      </c>
+      <c r="E101">
+        <v>0.01107300941407271</v>
+      </c>
+      <c r="F101">
+        <v>0.01324905857465525</v>
+      </c>
+      <c r="G101">
+        <v>0.1057084438623175</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1064191006597773</v>
+        <v>0.1207139805810852</v>
       </c>
       <c r="C102">
-        <v>-0.09143066441275936</v>
+        <v>-0.09051543277443158</v>
       </c>
       <c r="D102">
-        <v>0.01656230842578365</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0001294555531030426</v>
+      </c>
+      <c r="E102">
+        <v>-0.04476123648863483</v>
+      </c>
+      <c r="F102">
+        <v>0.02006880665216506</v>
+      </c>
+      <c r="G102">
+        <v>0.02044807272309634</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.1322734994589335</v>
+        <v>0.02035444528198276</v>
       </c>
       <c r="C104">
-        <v>0.2848141290590637</v>
+        <v>0.02799754512094345</v>
       </c>
       <c r="D104">
-        <v>0.940121683234569</v>
+        <v>0.9861885718462426</v>
+      </c>
+      <c r="E104">
+        <v>-0.08597558765820978</v>
+      </c>
+      <c r="F104">
+        <v>0.02144581252912544</v>
+      </c>
+      <c r="G104">
+        <v>-0.03770543738621222</v>
       </c>
     </row>
   </sheetData>
